--- a/app/tables/tabla_spline.xlsx
+++ b/app/tables/tabla_spline.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,66 +436,36 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>0.466666666666669</t>
+          <t>-0.333333333333333</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>-1.40000000000001</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>1.93333333333334</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>0.666666666666667</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-1.33333333333334</t>
+          <t>-0.333333333333333</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9.40000000000003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-19.6666666666667</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.4</t>
+          <t>0.666666666666667</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.866666666666668</t>
+          <t>6.34413156928661e-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-10.4</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>39.7333333333334</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-44.0000000000001</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_spline.xlsx
+++ b/app/tables/tabla_spline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,66 +436,24 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>0.466666666666669</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>-1.40000000000001</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>1.93333333333334</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>-2</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-1.33333333333334</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9.40000000000003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-19.6666666666667</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>0.866666666666668</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>-10.4</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>39.7333333333334</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-44.0000000000001</t>
+          <t>-6</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_spline.xlsx
+++ b/app/tables/tabla_spline.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,24 +436,24 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-2.45</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>3.8</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_spline.xlsx
+++ b/app/tables/tabla_spline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,24 +436,36 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-0.666666666666667</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>10.6666666666667</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.230769230769231</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>1.69230769230769</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>-0.12280701754386</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>9.82456140350877</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_spline.xlsx
+++ b/app/tables/tabla_spline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,24 +436,88 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>16.4701252409078</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>-2.45</t>
+          <t>158.113202312715</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>490.303442391053</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>493.584887863234</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1.50764766090166</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>-3.68675380357017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4.90357404219722</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.18501951437844</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>-0.073593389607704</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-1.53567239662924</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5.97911474566768</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.36427629829022</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>8.06264357307232</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-99.1705159487896</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>396.518488954309</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-512.354889313232</t>
         </is>
       </c>
     </row>
